--- a/sem2/СО-ИС-20.xlsx
+++ b/sem2/СО-ИС-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/IT-and-IS-development-platforms/sem2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE6FA90-E790-6E46-8F6A-DCE3222EF81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D506566-7D11-114D-87B3-82D6C69454B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{DD580830-321F-2242-9E66-B5A1832D8BE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{DD580830-321F-2242-9E66-B5A1832D8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="41">
   <si>
     <t>№</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Кончаков Максим Денисович 🗿</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
   </si>
 </sst>
 </file>
@@ -549,15 +552,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF9A30D-37FD-DE42-9A75-259EA74DB8C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -582,8 +586,12 @@
       <c r="G1" s="6">
         <v>45181</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="6">
+        <v>45183</v>
+      </c>
+      <c r="I1" s="6">
+        <v>45187</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -610,8 +618,12 @@
       <c r="G2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -638,8 +650,12 @@
       <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -666,8 +682,12 @@
       <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -694,8 +714,12 @@
       <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -722,8 +746,12 @@
       <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -750,8 +778,12 @@
       <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -778,8 +810,12 @@
       <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -806,8 +842,12 @@
       <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -834,8 +874,12 @@
       <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -862,8 +906,12 @@
       <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -890,8 +938,12 @@
       <c r="G12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -918,8 +970,12 @@
       <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -946,8 +1002,12 @@
       <c r="G14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -974,8 +1034,12 @@
       <c r="G15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1002,8 +1066,12 @@
       <c r="G16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1030,8 +1098,12 @@
       <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1058,8 +1130,12 @@
       <c r="G18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1086,8 +1162,12 @@
       <c r="G19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1114,8 +1194,12 @@
       <c r="G20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1142,8 +1226,12 @@
       <c r="G21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1170,8 +1258,12 @@
       <c r="G22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1198,8 +1290,12 @@
       <c r="G23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1226,8 +1322,12 @@
       <c r="G24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1254,8 +1354,12 @@
       <c r="G25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1282,8 +1386,12 @@
       <c r="G26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1310,8 +1418,12 @@
       <c r="G27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1338,8 +1450,12 @@
       <c r="G28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1366,8 +1482,12 @@
       <c r="G29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1394,8 +1514,12 @@
       <c r="G30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1407,19 +1531,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BBFDA-E5AC-DB49-817B-B99E7F489A56}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1429,9 +1554,15 @@
       <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1439,9 +1570,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1451,9 +1586,13 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="5"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1463,19 +1602,31 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1485,19 +1636,29 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1505,11 +1666,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1517,9 +1682,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1529,9 +1698,13 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1541,9 +1714,13 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1551,11 +1728,15 @@
         <v>12</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1565,9 +1746,13 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1575,11 +1760,15 @@
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1589,9 +1778,13 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="5"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1599,11 +1792,15 @@
         <v>16</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1613,9 +1810,13 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1623,9 +1824,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1635,9 +1840,13 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1647,9 +1856,13 @@
       <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1657,11 +1870,15 @@
         <v>21</v>
       </c>
       <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1669,11 +1886,17 @@
         <v>22</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1681,11 +1904,15 @@
         <v>23</v>
       </c>
       <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1695,9 +1922,15 @@
       <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1705,9 +1938,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="5"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1717,9 +1954,13 @@
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1729,9 +1970,13 @@
       <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="5"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1739,11 +1984,17 @@
         <v>28</v>
       </c>
       <c r="C28" s="5">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1753,9 +2004,13 @@
       <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="5"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1765,7 +2020,11 @@
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem2/СО-ИС-20.xlsx
+++ b/sem2/СО-ИС-20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/IT-and-IS-development-platforms/sem2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D506566-7D11-114D-87B3-82D6C69454B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8124C1-0D05-E64B-9515-79781B4F0D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{DD580830-321F-2242-9E66-B5A1832D8BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="41">
   <si>
     <t>№</t>
   </si>
@@ -552,16 +552,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF9A30D-37FD-DE42-9A75-259EA74DB8C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A5" zoomScale="143" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="4"/>
+    <col min="3" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -592,8 +591,12 @@
       <c r="I1" s="6">
         <v>45187</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="6">
+        <v>45190</v>
+      </c>
+      <c r="K1" s="6">
+        <v>45190</v>
+      </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -624,8 +627,12 @@
       <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -656,8 +663,12 @@
       <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -688,8 +699,12 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -720,8 +735,12 @@
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -752,8 +771,12 @@
       <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -784,8 +807,12 @@
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -816,8 +843,12 @@
       <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -848,8 +879,12 @@
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -880,8 +915,12 @@
       <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -912,8 +951,12 @@
       <c r="I11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -944,8 +987,12 @@
       <c r="I12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -976,8 +1023,12 @@
       <c r="I13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1008,8 +1059,12 @@
       <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1040,8 +1095,12 @@
       <c r="I15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1072,8 +1131,12 @@
       <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1104,8 +1167,12 @@
       <c r="I17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1136,8 +1203,12 @@
       <c r="I18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1168,8 +1239,12 @@
       <c r="I19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1195,13 +1270,17 @@
         <v>31</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1232,8 +1311,12 @@
       <c r="I21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1264,8 +1347,12 @@
       <c r="I22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1296,8 +1383,12 @@
       <c r="I23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1328,8 +1419,12 @@
       <c r="I24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1360,8 +1455,12 @@
       <c r="I25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1392,8 +1491,12 @@
       <c r="I26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1424,8 +1527,12 @@
       <c r="I27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1456,8 +1563,12 @@
       <c r="I28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1488,8 +1599,12 @@
       <c r="I29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1520,8 +1635,12 @@
       <c r="I30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L30" s="1"/>
     </row>
   </sheetData>
@@ -1533,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BBFDA-E5AC-DB49-817B-B99E7F489A56}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1584,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="1"/>
@@ -1618,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
@@ -1698,7 +1817,9 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1854,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1"/>
@@ -1920,10 +2041,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1952,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1"/>
@@ -1987,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2002,7 +2123,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="1"/>

--- a/sem2/СО-ИС-20.xlsx
+++ b/sem2/СО-ИС-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/IT-and-IS-development-platforms/sem2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8124C1-0D05-E64B-9515-79781B4F0D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3D38A-BB0F-0C4E-B7A4-4A2C573AC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{DD580830-321F-2242-9E66-B5A1832D8BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Лаб 2</t>
+  </si>
+  <si>
+    <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,11 +224,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -234,6 +253,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,20 +575,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF9A30D-37FD-DE42-9A75-259EA74DB8C3}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="143" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,9 +624,20 @@
       <c r="K1" s="6">
         <v>45190</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L1" s="7">
+        <v>45194</v>
+      </c>
+      <c r="M1" s="6">
+        <v>45195</v>
+      </c>
+      <c r="N1" s="6">
+        <v>45197</v>
+      </c>
+      <c r="O1" s="6">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -633,9 +671,20 @@
       <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -669,9 +718,20 @@
       <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -705,9 +765,20 @@
       <c r="K4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -741,9 +812,20 @@
       <c r="K5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -777,9 +859,20 @@
       <c r="K6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -813,9 +906,20 @@
       <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -849,9 +953,20 @@
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -885,9 +1000,20 @@
       <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -921,9 +1047,20 @@
       <c r="K10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -957,9 +1094,20 @@
       <c r="K11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -993,9 +1141,20 @@
       <c r="K12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1029,9 +1188,20 @@
       <c r="K13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1065,9 +1235,20 @@
       <c r="K14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1101,9 +1282,20 @@
       <c r="K15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1137,9 +1329,20 @@
       <c r="K16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1173,9 +1376,20 @@
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1209,9 +1423,20 @@
       <c r="K18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1245,9 +1470,20 @@
       <c r="K19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1281,9 +1517,20 @@
       <c r="K20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1317,9 +1564,20 @@
       <c r="K21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1353,9 +1611,20 @@
       <c r="K22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1389,9 +1658,20 @@
       <c r="K23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1425,9 +1705,20 @@
       <c r="K24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1461,9 +1752,20 @@
       <c r="K25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1497,9 +1799,20 @@
       <c r="K26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1533,9 +1846,20 @@
       <c r="K27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1569,9 +1893,20 @@
       <c r="K28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1605,9 +1940,20 @@
       <c r="K29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1641,7 +1987,18 @@
       <c r="K30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,15 +2009,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BBFDA-E5AC-DB49-817B-B99E7F489A56}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1676,10 +2034,14 @@
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
@@ -1690,10 +2052,10 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1705,11 +2067,15 @@
       <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1719,15 +2085,15 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1740,10 +2106,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1756,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1771,11 +2137,15 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1787,11 +2157,13 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1802,10 +2174,10 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1820,10 +2192,10 @@
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1836,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1852,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1868,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1883,11 +2255,13 @@
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1900,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1916,10 +2290,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1929,13 +2303,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1946,10 +2320,10 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1961,11 +2335,15 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1978,10 +2356,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1994,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -2012,10 +2390,12 @@
       <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2028,10 +2408,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2046,10 +2426,10 @@
       <c r="D24" s="5">
         <v>4</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -2060,10 +2440,10 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -2076,10 +2456,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -2092,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -2110,10 +2490,12 @@
       <c r="D28" s="5">
         <v>4</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -2126,10 +2508,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -2142,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem2/СО-ИС-20.xlsx
+++ b/sem2/СО-ИС-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/IT-and-IS-development-platforms/sem2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3D38A-BB0F-0C4E-B7A4-4A2C573AC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61686BAF-00E4-7E42-B14B-99EC6C4A2C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{DD580830-321F-2242-9E66-B5A1832D8BE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{DD580830-321F-2242-9E66-B5A1832D8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
@@ -140,38 +140,65 @@
     <t>=</t>
   </si>
   <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
-    <t>Клепалов Константин Олегович ♿️</t>
-  </si>
-  <si>
-    <t>Манаенков Александр Викторович ♿️</t>
-  </si>
-  <si>
     <t>Шальнов Данил Юрьевич ♿️</t>
   </si>
   <si>
-    <t>Смородин Игнат Игоревич ♿️</t>
-  </si>
-  <si>
     <t>Кончаков Максим Денисович 🗿</t>
   </si>
   <si>
-    <t>Лаб 2</t>
-  </si>
-  <si>
-    <t>Лаб 3</t>
-  </si>
-  <si>
-    <t>Лаб 4</t>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Ат1 (40)</t>
+  </si>
+  <si>
+    <t>Лаб 1 (5)</t>
+  </si>
+  <si>
+    <t>Лаб 5 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 4 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 3 (8)</t>
+  </si>
+  <si>
+    <t>Лаб 2 (7)</t>
+  </si>
+  <si>
+    <t>Лаб 8 (20)</t>
+  </si>
+  <si>
+    <t>Лаб 9 (20)</t>
+  </si>
+  <si>
+    <t>Лаб 10 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 7 (3)</t>
+  </si>
+  <si>
+    <t>Лаб 6 (7)</t>
+  </si>
+  <si>
+    <t>Ат2 (60)</t>
+  </si>
+  <si>
+    <t>Смородин Игнат Игоревич ♿️🌈</t>
+  </si>
+  <si>
+    <t>Манаенков Александр Викторович ♿️🌈</t>
+  </si>
+  <si>
+    <t>Клепалов Константин Олегович ♿️🤡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +219,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,24 +257,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -255,17 +275,42 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -575,22 +620,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF9A30D-37FD-DE42-9A75-259EA74DB8C3}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="42" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +674,7 @@
       <c r="K1" s="6">
         <v>45190</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="6">
         <v>45194</v>
       </c>
       <c r="M1" s="6">
@@ -636,8 +686,41 @@
       <c r="O1" s="6">
         <v>45201</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="6">
+        <v>45204</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>45204</v>
+      </c>
+      <c r="R1" s="6">
+        <v>45208</v>
+      </c>
+      <c r="S1" s="6">
+        <v>45209</v>
+      </c>
+      <c r="T1" s="6">
+        <v>45211</v>
+      </c>
+      <c r="U1" s="6">
+        <v>45215</v>
+      </c>
+      <c r="V1" s="6">
+        <v>45218</v>
+      </c>
+      <c r="W1" s="6">
+        <v>45218</v>
+      </c>
+      <c r="X1" s="6">
+        <v>45222</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>45223</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -671,7 +754,7 @@
       <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -683,8 +766,41 @@
       <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -718,7 +834,7 @@
       <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -730,8 +846,41 @@
       <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -765,7 +914,7 @@
       <c r="K4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -777,8 +926,41 @@
       <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -812,7 +994,7 @@
       <c r="K5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -824,8 +1006,41 @@
       <c r="O5" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -859,7 +1074,7 @@
       <c r="K6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -871,8 +1086,41 @@
       <c r="O6" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -906,7 +1154,7 @@
       <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -918,8 +1166,41 @@
       <c r="O7" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -953,7 +1234,7 @@
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="5" t="s">
@@ -965,60 +1246,126 @@
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>32</v>
@@ -1039,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>32</v>
@@ -1047,28 +1394,61 @@
       <c r="K10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>32</v>
@@ -1080,42 +1460,75 @@
         <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
+      <c r="L11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>32</v>
@@ -1127,7 +1540,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>32</v>
@@ -1136,13 +1549,13 @@
         <v>32</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>31</v>
+      <c r="L12" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>32</v>
@@ -1153,61 +1566,127 @@
       <c r="O12" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
@@ -1230,30 +1709,63 @@
         <v>32</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1268,39 +1780,72 @@
         <v>32</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>32</v>
@@ -1315,10 +1860,10 @@
         <v>32</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>32</v>
@@ -1329,7 +1874,7 @@
       <c r="K16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M16" s="5" t="s">
@@ -1341,16 +1886,49 @@
       <c r="O16" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>32</v>
@@ -1362,22 +1940,22 @@
         <v>32</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>31</v>
@@ -1386,27 +1964,60 @@
         <v>32</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>31</v>
@@ -1418,51 +2029,84 @@
         <v>31</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>32</v>
@@ -1470,25 +2114,58 @@
       <c r="K19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>32</v>
+      <c r="L19" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>32</v>
@@ -1506,10 +2183,10 @@
         <v>31</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>32</v>
@@ -1517,25 +2194,58 @@
       <c r="K20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>32</v>
@@ -1550,13 +2260,13 @@
         <v>32</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>32</v>
@@ -1564,25 +2274,58 @@
       <c r="K21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>31</v>
+      <c r="L21" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>32</v>
@@ -1594,42 +2337,75 @@
         <v>32</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>32</v>
+      <c r="L22" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>32</v>
@@ -1641,25 +2417,25 @@
         <v>32</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>31</v>
+      <c r="L23" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>31</v>
@@ -1670,13 +2446,46 @@
       <c r="O23" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>32</v>
@@ -1697,7 +2506,7 @@
         <v>32</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>32</v>
@@ -1705,31 +2514,64 @@
       <c r="K24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>32</v>
+      <c r="L24" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>32</v>
@@ -1738,7 +2580,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>32</v>
@@ -1747,16 +2589,16 @@
         <v>32</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>32</v>
@@ -1764,13 +2606,46 @@
       <c r="O25" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>32</v>
@@ -1785,13 +2660,13 @@
         <v>32</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>32</v>
@@ -1799,37 +2674,70 @@
       <c r="K26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>31</v>
+      <c r="L26" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>31</v>
@@ -1838,16 +2746,16 @@
         <v>32</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>32</v>
+      <c r="L27" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>31</v>
@@ -1858,170 +2766,163 @@
       <c r="O27" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:XFD28">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BBFDA-E5AC-DB49-817B-B99E7F489A56}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="4"/>
+    <col min="3" max="4" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2029,21 +2930,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2055,9 +2981,25 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="5">
+        <f>SUM(C2:G2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5">
+        <f>SUM(I2:M2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <f>SUM(N2,H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2065,19 +3007,39 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H30" si="0">SUM(C3:G3)</f>
+        <v>36</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N30" si="1">SUM(I3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O30" si="2">SUM(N3,H3)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2085,17 +3047,39 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2103,15 +3087,33 @@
         <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2119,15 +3121,31 @@
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2135,19 +3153,35 @@
         <v>7</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2155,17 +3189,35 @@
         <v>8</v>
       </c>
       <c r="C8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2177,9 +3229,25 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2187,17 +3255,33 @@
         <v>10</v>
       </c>
       <c r="C10" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2205,15 +3289,35 @@
         <v>11</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2221,15 +3325,33 @@
         <v>12</v>
       </c>
       <c r="C12" s="5">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2237,15 +3359,31 @@
         <v>13</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2253,17 +3391,39 @@
         <v>14</v>
       </c>
       <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="5">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2271,15 +3431,31 @@
         <v>15</v>
       </c>
       <c r="C15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2287,15 +3463,35 @@
         <v>16</v>
       </c>
       <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2303,15 +3499,35 @@
         <v>17</v>
       </c>
       <c r="C17" s="5">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2323,9 +3539,25 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2333,19 +3565,39 @@
         <v>19</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2353,15 +3605,39 @@
         <v>20</v>
       </c>
       <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2369,15 +3645,35 @@
         <v>21</v>
       </c>
       <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2385,19 +3681,41 @@
         <v>22</v>
       </c>
       <c r="C22" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2405,15 +3723,35 @@
         <v>23</v>
       </c>
       <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2421,17 +3759,41 @@
         <v>24</v>
       </c>
       <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I24" s="5">
+        <v>7</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2443,9 +3805,25 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2453,15 +3831,33 @@
         <v>26</v>
       </c>
       <c r="C26" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>8</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2469,15 +3865,33 @@
         <v>27</v>
       </c>
       <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2485,19 +3899,39 @@
         <v>28</v>
       </c>
       <c r="C28" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="5">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>8</v>
+      </c>
       <c r="F28" s="5">
-        <v>4</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2505,31 +3939,66 @@
         <v>29</v>
       </c>
       <c r="C29" s="5">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>